--- a/DotNet/wwwroot/Uploads/itemdata.xlsx
+++ b/DotNet/wwwroot/Uploads/itemdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B51FC5-2AF9-4BB6-9731-ADBA5E66DD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60A7C3-46B3-4A3B-A25D-F4BF42AE58D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="1230" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,64 +48,64 @@
     <t>Category</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>a.jpg</t>
-  </si>
-  <si>
-    <t>b.jpg</t>
-  </si>
-  <si>
-    <t>c.jpg</t>
-  </si>
-  <si>
-    <t>d.jpg</t>
-  </si>
-  <si>
-    <t>e.jpg</t>
-  </si>
-  <si>
-    <t>f.jpg</t>
-  </si>
-  <si>
-    <t>h.jpg</t>
-  </si>
-  <si>
-    <t>i.jpg</t>
-  </si>
-  <si>
-    <t>j.jpg</t>
-  </si>
-  <si>
-    <t>g.jpg</t>
+    <t>Marvo.jpg</t>
+  </si>
+  <si>
+    <t>Marvo S6-280</t>
+  </si>
+  <si>
+    <t>D.jpg</t>
+  </si>
+  <si>
+    <t>DeepCool Tower Cooler</t>
+  </si>
+  <si>
+    <t>Blue Shirt</t>
+  </si>
+  <si>
+    <t>shirt.jpg</t>
+  </si>
+  <si>
+    <t>Walton Indigo</t>
+  </si>
+  <si>
+    <t>walton.jpg</t>
+  </si>
+  <si>
+    <t>khichuri.jpg</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>Khichuri</t>
+  </si>
+  <si>
+    <t>castle.jpg</t>
+  </si>
+  <si>
+    <t>Gskill TridenZ</t>
+  </si>
+  <si>
+    <t>gskill.jpg</t>
+  </si>
+  <si>
+    <t>AMD R5 S7K</t>
+  </si>
+  <si>
+    <t>AMDR5S7K.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core I5 13600K </t>
+  </si>
+  <si>
+    <t>intel.jpg</t>
+  </si>
+  <si>
+    <t>Holy Quran</t>
+  </si>
+  <si>
+    <t>Quran.jpg</t>
   </si>
 </sst>
 </file>
@@ -427,11 +427,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
@@ -465,22 +467,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>2300</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>45425.512372685182</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -488,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>8500</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>45426.512372685182</v>
@@ -511,22 +513,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <v>45427.512372627316</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,16 +536,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>4500</v>
       </c>
       <c r="D5">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>45428.512372627316</v>
@@ -557,22 +559,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="D6">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>45429.512372627316</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -580,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>12000</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
         <v>45430.512372627316</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,22 +605,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>4500</v>
       </c>
       <c r="D8">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>45431.512372627316</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,22 +628,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>32000</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1">
         <v>45432.512372627316</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -649,10 +651,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>39000</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -664,7 +666,7 @@
         <v>45433.512372627316</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,22 +674,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>3000</v>
       </c>
       <c r="D11">
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1">
         <v>45434.512372627316</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
